--- a/document/final/results.xlsx
+++ b/document/final/results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Image CLEF2013 natural leaf" sheetId="1" r:id="rId1"/>
+    <sheet name="CLEF2013 uniform leaf" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Training species</t>
   </si>
@@ -50,10 +45,44 @@
     <t>Augmentation</t>
   </si>
   <si>
-    <t>10 x rotation, shift</t>
-  </si>
-  <si>
-    <t>No feature selection</t>
+    <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>Training  Accuracy</t>
+  </si>
+  <si>
+    <t>Not best SVM. Set threshold to be &gt;= 20 samples per species
+No feature selection; 10 x rotation(360), shift (0.2)</t>
+  </si>
+  <si>
+    <t>Not best SVM. Set threshold to be &gt;= 20 samples per species
+No feature selection;  No Augmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not best SVM. Set threshold to be &gt;= 20 samples per species
+Select best 500 MI for features. 10 x rotation(360), shift (0.2). </t>
+  </si>
+  <si>
+    <t>Feature selection</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Not best SVM. Set threshold to be &gt;= 20 samples per species
+Select best 500 MI  features. No Augmentation</t>
+  </si>
+  <si>
+    <t>Select best 500 MI  features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 x rotation(360), shift (0.2). </t>
+  </si>
+  <si>
+    <t>Set threshold to be &gt;= 20 samples per species</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -89,8 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,50 +400,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="182" zoomScalePageLayoutView="182" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="H1" zoomScale="182" zoomScaleNormal="182" zoomScalePageLayoutView="182" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.97689999999999999</v>
       </c>
@@ -421,14 +458,378 @@
       <c r="C2">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2">
+        <v>2585</v>
+      </c>
+      <c r="E2">
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>521</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="B3">
+        <v>0.43119000000000002</v>
+      </c>
+      <c r="C3">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>2585</v>
+      </c>
+      <c r="E3">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>521</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B4">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>2585</v>
+      </c>
+      <c r="E4">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>521</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.79</v>
+      </c>
+      <c r="B5">
+        <v>0.4491</v>
+      </c>
+      <c r="C5">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>2585</v>
+      </c>
+      <c r="E5">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>521</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="209" zoomScaleNormal="209" zoomScalePageLayoutView="209" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="68.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="B2">
+        <v>0.63229999999999997</v>
+      </c>
+      <c r="C2">
+        <v>109</v>
+      </c>
+      <c r="D2">
+        <v>9607</v>
+      </c>
+      <c r="E2">
+        <v>66</v>
+      </c>
       <c r="F2">
-        <v>54</v>
+        <v>1194</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/document/final/results.xlsx
+++ b/document/final/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peng_liu/src/cs229final/document/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonmax/repos/stanford/cs229final/document/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Image CLEF2013 natural leaf" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Training species</t>
   </si>
@@ -83,6 +86,21 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>CNN Arch</t>
+  </si>
+  <si>
+    <t>ResNet50</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>BottleNeck MLP</t>
   </si>
 </sst>
 </file>
@@ -402,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="182" zoomScaleNormal="182" zoomScalePageLayoutView="182" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" zoomScale="182" zoomScaleNormal="182" zoomScalePageLayoutView="182" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.97499999999999998</v>
       </c>
@@ -763,18 +781,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="209" zoomScaleNormal="209" zoomScalePageLayoutView="209" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="68.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,10 +819,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.96989999999999998</v>
       </c>
@@ -829,7 +854,45 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="B3">
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="C3">
+        <v>126</v>
+      </c>
+      <c r="D3">
+        <v>9781</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>1250</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/document/final/results.xlsx
+++ b/document/final/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonmax/repos/stanford/cs229final/document/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peng_liu/src/cs229final/document/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Image CLEF2013 natural leaf" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Training species</t>
   </si>
@@ -97,10 +94,22 @@
     <t>Classifier</t>
   </si>
   <si>
-    <t>SVC</t>
-  </si>
-  <si>
     <t>BottleNeck MLP</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>SIFT_BOF</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>SVM linear</t>
   </si>
 </sst>
 </file>
@@ -418,361 +427,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="182" zoomScaleNormal="182" zoomScalePageLayoutView="182" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="182" zoomScaleNormal="182" zoomScalePageLayoutView="182" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
-    <col min="9" max="9" width="77" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
         <v>0.97689999999999999</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.47220000000000001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>57</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2585</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>54</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>521</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
         <v>0.77410000000000001</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.43119000000000002</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>57</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2585</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>54</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>521</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.44719999999999999</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>57</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2585</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>54</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>521</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
         <v>0.79</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.4491</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>57</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2585</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>54</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>521</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G6" s="1"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G10" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G11" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G12" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G13" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G14" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G15" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G20" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G21" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G23" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G26" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G27" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G28" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G29" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G30" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G31" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G32" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G33" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G34" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G35" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G36" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G37" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G38" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G39" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G40" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G41" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G42" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G43" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G44" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G45" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G46" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G47" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G48" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G49" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G50" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G51" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G52" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G53" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -781,118 +806,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" zoomScaleNormal="209" zoomScalePageLayoutView="209" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="68.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
         <v>0.96989999999999998</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.63229999999999997</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>109</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9607</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>66</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1194</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
         <v>0.98350000000000004</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.59040000000000004</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>126</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9781</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>70</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1250</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="D10">
+        <v>109</v>
+      </c>
+      <c r="E10">
+        <v>9607</v>
+      </c>
+      <c r="F10">
+        <v>66</v>
+      </c>
+      <c r="G10">
+        <v>1194</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/document/final/results.xlsx
+++ b/document/final/results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>Training species</t>
   </si>
@@ -110,6 +110,20 @@
   </si>
   <si>
     <t>SVM linear</t>
+  </si>
+  <si>
+    <t>Set threshold to be &gt;= 20 samples per species; K=1000. No resize before SIFT.</t>
+  </si>
+  <si>
+    <t>Set threshold to be &gt;= 20 samples per species; K=3000. No resize before SIFT.</t>
+  </si>
+  <si>
+    <t>factor=3.
+rotation=10.
+shift=0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set threshold to be &gt;= 20 samples per species. Apply histogram normalization and then use K-means to remove background color </t>
   </si>
 </sst>
 </file>
@@ -429,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="182" zoomScaleNormal="182" zoomScalePageLayoutView="182" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -806,10 +820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,9 +835,10 @@
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="68.6640625" customWidth="1"/>
+    <col min="12" max="12" width="68.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -898,7 +913,7 @@
       <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -937,12 +952,53 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="C4">
+        <v>5678</v>
+      </c>
+      <c r="D4">
+        <v>109</v>
+      </c>
+      <c r="E4">
+        <v>28821</v>
+      </c>
+      <c r="F4">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <v>1194</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10">
-        <v>0.64049999999999996</v>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.40949999999999998</v>
       </c>
       <c r="D10">
         <v>109</v>
@@ -968,8 +1024,46 @@
       <c r="K10" t="s">
         <v>26</v>
       </c>
-      <c r="L10" t="s">
-        <v>16</v>
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="C11">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D11">
+        <v>109</v>
+      </c>
+      <c r="E11">
+        <v>9607</v>
+      </c>
+      <c r="F11">
+        <v>66</v>
+      </c>
+      <c r="G11">
+        <v>1194</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/document/final/results.xlsx
+++ b/document/final/results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>Training species</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t xml:space="preserve">Set threshold to be &gt;= 20 samples per species. Apply histogram normalization and then use K-means to remove background color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set threshold to be &gt;= 20 samples per species; Apply histogram normalization and then use K-means to remove background color </t>
+  </si>
+  <si>
+    <t>Set threshold to be &gt;= 20 samples per species; K=6000. No resize before SIFT.</t>
+  </si>
+  <si>
+    <t>Set threshold to be &gt;= 20 samples per species;  shrink to 256/256 without losing aspect ratio</t>
   </si>
 </sst>
 </file>
@@ -444,7 +453,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H5" activeCellId="1" sqref="A10 H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,10 +829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,7 +969,7 @@
         <v>0.99860000000000004</v>
       </c>
       <c r="C4">
-        <v>5678</v>
+        <v>0.56779999999999997</v>
       </c>
       <c r="D4">
         <v>109</v>
@@ -988,6 +997,82 @@
       </c>
       <c r="L4" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.9466</v>
+      </c>
+      <c r="C5">
+        <v>0.58789999999999998</v>
+      </c>
+      <c r="D5">
+        <v>109</v>
+      </c>
+      <c r="E5">
+        <v>9607</v>
+      </c>
+      <c r="F5">
+        <v>66</v>
+      </c>
+      <c r="G5">
+        <v>1194</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D6">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>9607</v>
+      </c>
+      <c r="F6">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <v>1194</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1064,6 +1149,44 @@
       </c>
       <c r="L11" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="C12">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D12">
+        <v>109</v>
+      </c>
+      <c r="E12">
+        <v>9607</v>
+      </c>
+      <c r="F12">
+        <v>66</v>
+      </c>
+      <c r="G12">
+        <v>1194</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/document/final/results.xlsx
+++ b/document/final/results.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Image CLEF2013 natural leaf" sheetId="1" r:id="rId1"/>
     <sheet name="CLEF2013 uniform leaf" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -832,7 +833,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,10 +1043,10 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>0.95069999999999999</v>
+        <v>0.96140000000000003</v>
       </c>
       <c r="C6">
-        <v>0.63900000000000001</v>
+        <v>0.64910000000000001</v>
       </c>
       <c r="D6">
         <v>109</v>
@@ -1192,4 +1193,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/final/results.xlsx
+++ b/document/final/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peng_liu/src/cs229final/document/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonmax/repos/stanford/cs229final/document/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Image CLEF2013 natural leaf" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="43">
   <si>
     <t>Training species</t>
   </si>
@@ -134,6 +137,39 @@
   </si>
   <si>
     <t>Set threshold to be &gt;= 20 samples per species;  shrink to 256/256 without losing aspect ratio</t>
+  </si>
+  <si>
+    <t>swedish</t>
+  </si>
+  <si>
+    <t>fc(512)
+fc(256)
+SGD(lr=1e-4,momentum=0.9)</t>
+  </si>
+  <si>
+    <t>StandardScaler
+c=0.01
+kfold=3</t>
+  </si>
+  <si>
+    <t>VGG19</t>
+  </si>
+  <si>
+    <t>uci</t>
+  </si>
+  <si>
+    <t>fc(512)
+fc(256)
+SGD(lr=1e-4,momentum=0.5)</t>
+  </si>
+  <si>
+    <t>flavia</t>
+  </si>
+  <si>
+    <t>HyperParameters</t>
+  </si>
+  <si>
+    <t>DataSet</t>
   </si>
 </sst>
 </file>
@@ -830,363 +866,739 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="68.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.96989999999999998</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.63229999999999997</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>109</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>9607</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>66</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1194</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.98350000000000004</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.59040000000000004</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>126</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>9781</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>70</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1250</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.99860000000000004</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.56779999999999997</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>109</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>28821</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>66</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1194</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.9466</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.58789999999999998</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>109</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9607</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>66</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1194</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.96140000000000003</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.64910000000000001</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>109</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9607</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>66</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1194</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>825</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>825</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>825</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.98</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>320</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>320</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>320</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>123</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="D13">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>1419</v>
+      </c>
+      <c r="G13">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>488</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>1419</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>488</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>0.42</v>
+      </c>
+      <c r="D15">
+        <v>0.81969999999999998</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>1419</v>
+      </c>
+      <c r="G15">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>488</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="C19">
         <v>0.85599999999999998</v>
       </c>
-      <c r="C10">
+      <c r="D19">
         <v>0.40949999999999998</v>
       </c>
-      <c r="D10">
+      <c r="E19">
         <v>109</v>
       </c>
-      <c r="E10">
+      <c r="F19">
         <v>9607</v>
       </c>
-      <c r="F10">
+      <c r="G19">
         <v>66</v>
       </c>
-      <c r="G10">
+      <c r="H19">
         <v>1194</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I19" t="s">
         <v>25</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M19" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
+      <c r="C20">
         <v>0.86629999999999996</v>
       </c>
-      <c r="C11">
+      <c r="D20">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D11">
+      <c r="E20">
         <v>109</v>
       </c>
-      <c r="E11">
+      <c r="F20">
         <v>9607</v>
       </c>
-      <c r="F11">
+      <c r="G20">
         <v>66</v>
       </c>
-      <c r="G11">
+      <c r="H20">
         <v>1194</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I20" t="s">
         <v>25</v>
       </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M20" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
+      <c r="C21">
         <v>0.86970000000000003</v>
       </c>
-      <c r="C12">
+      <c r="D21">
         <v>0.47399999999999998</v>
       </c>
-      <c r="D12">
+      <c r="E21">
         <v>109</v>
       </c>
-      <c r="E12">
+      <c r="F21">
         <v>9607</v>
       </c>
-      <c r="F12">
+      <c r="G21">
         <v>66</v>
       </c>
-      <c r="G12">
+      <c r="H21">
         <v>1194</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I21" t="s">
         <v>25</v>
       </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
         <v>25</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M21" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/document/final/results.xlsx
+++ b/document/final/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Image CLEF2013 natural leaf" sheetId="1" r:id="rId1"/>
@@ -205,11 +205,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,7 +870,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +882,8 @@
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" customWidth="1"/>
     <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="11" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="68.6640625" style="1" customWidth="1"/>
@@ -918,7 +920,7 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1032,7 +1034,6 @@
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1"/>
       <c r="L4" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1150,7 +1151,7 @@
       <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="L7" t="s">
@@ -1160,7 +1161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1191,7 +1192,7 @@
       <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L8" t="s">
@@ -1201,7 +1202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1232,7 +1233,7 @@
       <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L9" t="s">
@@ -1242,7 +1243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1274,7 @@
       <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L10" t="s">
@@ -1283,7 +1284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1314,7 +1315,7 @@
       <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L11" t="s">
@@ -1324,7 +1325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1332,10 +1333,10 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>0.91559999999999997</v>
+        <v>0.58130000000000004</v>
       </c>
       <c r="D12">
-        <v>0.98370000000000002</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -1355,7 +1356,7 @@
       <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L12" t="s">
@@ -1365,7 +1366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1397,7 @@
       <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L13" t="s">
@@ -1406,7 +1407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1437,7 +1438,7 @@
       <c r="J14" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L14" t="s">
@@ -1447,7 +1448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1478,7 +1479,7 @@
       <c r="J15" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L15" t="s">

--- a/document/final/results.xlsx
+++ b/document/final/results.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="44">
   <si>
     <t>Training species</t>
   </si>
@@ -170,6 +170,13 @@
   </si>
   <si>
     <t>DataSet</t>
+  </si>
+  <si>
+    <t>StandardScaler
+PCI
+StandardScaler
+c=0.01
+kfold=3</t>
   </si>
 </sst>
 </file>
@@ -867,10 +874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,7 +889,7 @@
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" customWidth="1"/>
     <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -1333,10 +1340,10 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>0.58130000000000004</v>
+        <v>0.79059999999999997</v>
       </c>
       <c r="D12">
-        <v>0.52029999999999998</v>
+        <v>0.82110000000000005</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -1371,25 +1378,25 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>0.58130000000000004</v>
+      </c>
+      <c r="D13">
+        <v>0.52029999999999998</v>
+      </c>
+      <c r="E13">
         <v>40</v>
       </c>
-      <c r="C13">
-        <v>0.99150000000000005</v>
-      </c>
-      <c r="D13">
-        <v>0.89339999999999997</v>
-      </c>
-      <c r="E13">
-        <v>32</v>
-      </c>
       <c r="F13">
-        <v>1419</v>
+        <v>320</v>
       </c>
       <c r="G13">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>488</v>
+        <v>123</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -1398,13 +1405,13 @@
         <v>17</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1415,10 +1422,10 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>0.99580000000000002</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="D14">
-        <v>0.90369999999999995</v>
+        <v>0.89339999999999997</v>
       </c>
       <c r="E14">
         <v>32</v>
@@ -1439,13 +1446,13 @@
         <v>17</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
         <v>19</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1456,10 +1463,10 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>0.42</v>
+        <v>0.99580000000000002</v>
       </c>
       <c r="D15">
-        <v>0.81969999999999998</v>
+        <v>0.90369999999999995</v>
       </c>
       <c r="E15">
         <v>32</v>
@@ -1483,48 +1490,51 @@
         <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="D19">
-        <v>0.40949999999999998</v>
-      </c>
-      <c r="E19">
-        <v>109</v>
-      </c>
-      <c r="F19">
-        <v>9607</v>
-      </c>
-      <c r="G19">
-        <v>66</v>
-      </c>
-      <c r="H19">
-        <v>1194</v>
-      </c>
-      <c r="I19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>0.42</v>
+      </c>
+      <c r="D16">
+        <v>0.81969999999999998</v>
+      </c>
+      <c r="E16">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>1419</v>
+      </c>
+      <c r="G16">
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <v>488</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s">
         <v>26</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1532,10 +1542,10 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>0.86629999999999996</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D20">
-        <v>0.45900000000000002</v>
+        <v>0.40949999999999998</v>
       </c>
       <c r="E20">
         <v>109</v>
@@ -1562,7 +1572,7 @@
         <v>26</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1570,10 +1580,10 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0.86970000000000003</v>
+        <v>0.86629999999999996</v>
       </c>
       <c r="D21">
-        <v>0.47399999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="E21">
         <v>109</v>
@@ -1600,6 +1610,44 @@
         <v>26</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E22">
+        <v>109</v>
+      </c>
+      <c r="F22">
+        <v>9607</v>
+      </c>
+      <c r="G22">
+        <v>66</v>
+      </c>
+      <c r="H22">
+        <v>1194</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/document/final/results.xlsx
+++ b/document/final/results.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Image CLEF2013 natural leaf" sheetId="1" r:id="rId1"/>
     <sheet name="CLEF2013 uniform leaf" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Swedish" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>Training species</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>Set threshold to be &gt;= 20 samples per species;  shrink to 256/256 without losing aspect ratio</t>
+  </si>
+  <si>
+    <t>factor=5.
+channel_shift_range=100.</t>
   </si>
 </sst>
 </file>
@@ -833,7 +837,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,7 +849,7 @@
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="68.6640625" style="1" customWidth="1"/>
@@ -1076,6 +1080,44 @@
         <v>33</v>
       </c>
     </row>
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="C7">
+        <v>0.6734</v>
+      </c>
+      <c r="D7">
+        <v>109</v>
+      </c>
+      <c r="E7">
+        <v>48035</v>
+      </c>
+      <c r="F7">
+        <v>66</v>
+      </c>
+      <c r="G7">
+        <v>1194</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
@@ -1197,12 +1239,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>